--- a/Code/Results/Cases/Case_5_234/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_234/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.15856670363495</v>
+        <v>17.04324350258893</v>
       </c>
       <c r="C2">
-        <v>6.254126905453022</v>
+        <v>5.598243218831244</v>
       </c>
       <c r="D2">
-        <v>11.8313102978137</v>
+        <v>11.64155665218456</v>
       </c>
       <c r="E2">
-        <v>7.590806352481858</v>
+        <v>11.26414711091073</v>
       </c>
       <c r="F2">
-        <v>66.321971701097</v>
+        <v>57.93622936338958</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,13 +442,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.7469029751501</v>
+        <v>13.41342992578843</v>
       </c>
       <c r="L2">
-        <v>6.27066596547711</v>
+        <v>10.20684388430188</v>
       </c>
       <c r="M2">
-        <v>10.14107889014983</v>
+        <v>16.55792841314695</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.51976548226899</v>
+        <v>17.02031697725667</v>
       </c>
       <c r="C3">
-        <v>6.008941087676148</v>
+        <v>5.506379353198493</v>
       </c>
       <c r="D3">
-        <v>11.43691004667537</v>
+        <v>11.50265263352384</v>
       </c>
       <c r="E3">
-        <v>7.506438386634372</v>
+        <v>11.25634870994377</v>
       </c>
       <c r="F3">
-        <v>63.07109093813322</v>
+        <v>56.83751660945563</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,13 +483,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.05728292923893</v>
+        <v>13.4276402657267</v>
       </c>
       <c r="L3">
-        <v>6.209615944508309</v>
+        <v>10.21989284324145</v>
       </c>
       <c r="M3">
-        <v>9.958881630940157</v>
+        <v>16.59012411845315</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.12790492245156</v>
+        <v>17.0124793732986</v>
       </c>
       <c r="C4">
-        <v>5.855222690993866</v>
+        <v>5.447486261030732</v>
       </c>
       <c r="D4">
-        <v>11.19022909669154</v>
+        <v>11.41534165416848</v>
       </c>
       <c r="E4">
-        <v>7.456183800107826</v>
+        <v>11.25220294936749</v>
       </c>
       <c r="F4">
-        <v>61.02114351634654</v>
+        <v>56.15357939601261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,13 +524,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.794621578259958</v>
+        <v>13.44154486887179</v>
       </c>
       <c r="L4">
-        <v>6.175288905537998</v>
+        <v>10.22934092039317</v>
       </c>
       <c r="M4">
-        <v>9.854507951018068</v>
+        <v>16.6134901488376</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.96851611544175</v>
+        <v>17.01085662783823</v>
       </c>
       <c r="C5">
-        <v>5.791733863406662</v>
+        <v>5.422862620463366</v>
       </c>
       <c r="D5">
-        <v>11.08858629059925</v>
+        <v>11.37926595019279</v>
       </c>
       <c r="E5">
-        <v>7.43608292786748</v>
+        <v>11.25067545713118</v>
       </c>
       <c r="F5">
-        <v>60.1727078819923</v>
+        <v>55.87278340861413</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,13 +565,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.688696046376942</v>
+        <v>13.44850991437816</v>
       </c>
       <c r="L5">
-        <v>6.162077733921686</v>
+        <v>10.23355223626543</v>
       </c>
       <c r="M5">
-        <v>9.813842996992527</v>
+        <v>16.62391557373416</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.94207441716215</v>
+        <v>17.01068209526821</v>
       </c>
       <c r="C6">
-        <v>5.781139100453266</v>
+        <v>5.418736228742923</v>
       </c>
       <c r="D6">
-        <v>11.07164174122052</v>
+        <v>11.37324604819275</v>
       </c>
       <c r="E6">
-        <v>7.432767737201488</v>
+        <v>11.25043160931813</v>
       </c>
       <c r="F6">
-        <v>60.03105379547266</v>
+        <v>55.82603915182034</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,13 +606,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.671178693336074</v>
+        <v>13.44974477585311</v>
       </c>
       <c r="L6">
-        <v>6.159930491808089</v>
+        <v>10.23427333545691</v>
       </c>
       <c r="M6">
-        <v>9.807202913322485</v>
+        <v>16.62570124558386</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.12575384575475</v>
+        <v>17.01245112535912</v>
       </c>
       <c r="C7">
-        <v>5.854369949654421</v>
+        <v>5.447156703327102</v>
       </c>
       <c r="D7">
-        <v>11.18886280382302</v>
+        <v>11.41485711454436</v>
       </c>
       <c r="E7">
-        <v>7.455911194874985</v>
+        <v>11.25218169289311</v>
       </c>
       <c r="F7">
-        <v>61.00975336631001</v>
+        <v>56.14980058278244</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,13 +647,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.793188334618643</v>
+        <v>13.44163354862211</v>
       </c>
       <c r="L7">
-        <v>6.175107609546912</v>
+        <v>10.22939625335341</v>
       </c>
       <c r="M7">
-        <v>9.853951988697645</v>
+        <v>16.61362709284701</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.93834347444906</v>
+        <v>17.03404530072966</v>
       </c>
       <c r="C8">
-        <v>6.170213511565853</v>
+        <v>5.567085822275061</v>
       </c>
       <c r="D8">
-        <v>11.69626608780658</v>
+        <v>11.59409021939295</v>
       </c>
       <c r="E8">
-        <v>7.56138818312925</v>
+        <v>11.26132510850146</v>
       </c>
       <c r="F8">
-        <v>65.21249907522926</v>
+        <v>57.55948079948023</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,13 +688,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.501698640116526</v>
+        <v>13.41725279354989</v>
       </c>
       <c r="L8">
-        <v>6.248950376419121</v>
+        <v>10.21104518034349</v>
       </c>
       <c r="M8">
-        <v>10.07669171665149</v>
+        <v>16.56828217153397</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.52781907045016</v>
+        <v>17.12572081233726</v>
       </c>
       <c r="C9">
-        <v>6.767037505540406</v>
+        <v>5.782472406115656</v>
       </c>
       <c r="D9">
-        <v>12.65526492766404</v>
+        <v>11.92895759623391</v>
       </c>
       <c r="E9">
-        <v>7.781069166923768</v>
+        <v>11.28433671937169</v>
       </c>
       <c r="F9">
-        <v>73.01296099080135</v>
+        <v>60.2389679948549</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,13 +729,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.19768697445376</v>
+        <v>13.41065471049142</v>
       </c>
       <c r="L9">
-        <v>6.419589863072278</v>
+        <v>10.18644900253945</v>
       </c>
       <c r="M9">
-        <v>10.57372369589818</v>
+        <v>16.50795044169884</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.72392363788415</v>
+        <v>17.22279296910945</v>
       </c>
       <c r="C10">
-        <v>7.196135416321149</v>
+        <v>5.928603314562781</v>
       </c>
       <c r="D10">
-        <v>13.33864356738847</v>
+        <v>12.16414639955432</v>
       </c>
       <c r="E10">
-        <v>7.951216805741888</v>
+        <v>11.30431936471294</v>
       </c>
       <c r="F10">
-        <v>78.4680986016445</v>
+        <v>62.14191684388643</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,13 +770,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.3557079845349</v>
+        <v>13.43102447109744</v>
       </c>
       <c r="L10">
-        <v>6.561866318253855</v>
+        <v>10.17531611461027</v>
       </c>
       <c r="M10">
-        <v>10.97688173324723</v>
+        <v>16.48110324242463</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.35837092028906</v>
+        <v>17.27329414357659</v>
       </c>
       <c r="C11">
-        <v>7.390490869075178</v>
+        <v>5.99244604599351</v>
       </c>
       <c r="D11">
-        <v>13.64539068641223</v>
+        <v>12.26864198823409</v>
       </c>
       <c r="E11">
-        <v>8.030772288029091</v>
+        <v>11.31407264080164</v>
       </c>
       <c r="F11">
-        <v>80.89148923457746</v>
+        <v>62.99062873151685</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,13 +811,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.8655428680554</v>
+        <v>13.44576468010347</v>
       </c>
       <c r="L11">
-        <v>6.63055105218717</v>
+        <v>10.17175581775974</v>
       </c>
       <c r="M11">
-        <v>11.1689236707322</v>
+        <v>16.4726915019759</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.59622847921447</v>
+        <v>17.29331749727385</v>
       </c>
       <c r="C12">
-        <v>7.464085006406025</v>
+        <v>6.016242570599236</v>
       </c>
       <c r="D12">
-        <v>13.76101412229318</v>
+        <v>12.30784141913639</v>
       </c>
       <c r="E12">
-        <v>8.06123288904007</v>
+        <v>11.31786073399588</v>
       </c>
       <c r="F12">
-        <v>81.80112456125778</v>
+        <v>63.30936420109315</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,13 +852,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.05636805686217</v>
+        <v>13.45213155604446</v>
       </c>
       <c r="L12">
-        <v>6.657157460292784</v>
+        <v>10.17062362114826</v>
       </c>
       <c r="M12">
-        <v>11.24293159633691</v>
+        <v>16.47005291274659</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.54510493808048</v>
+        <v>17.28896531240389</v>
       </c>
       <c r="C13">
-        <v>7.448233305736698</v>
+        <v>6.011134443665326</v>
       </c>
       <c r="D13">
-        <v>13.73613521412026</v>
+        <v>12.29941580214344</v>
       </c>
       <c r="E13">
-        <v>8.054657323834903</v>
+        <v>11.31704069693429</v>
       </c>
       <c r="F13">
-        <v>81.60556964455698</v>
+        <v>63.24084012529908</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,13 +893,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.01536653274722</v>
+        <v>13.45072546345457</v>
       </c>
       <c r="L13">
-        <v>6.651400264578432</v>
+        <v>10.17085785784898</v>
       </c>
       <c r="M13">
-        <v>11.2269346504219</v>
+        <v>16.47059686324128</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.3779864684442</v>
+        <v>17.27492352342292</v>
       </c>
       <c r="C14">
-        <v>7.39654484655471</v>
+        <v>5.994411406238529</v>
       </c>
       <c r="D14">
-        <v>13.65491341872072</v>
+        <v>12.27187444890734</v>
       </c>
       <c r="E14">
-        <v>8.0332714340159</v>
+        <v>11.31438239442565</v>
       </c>
       <c r="F14">
-        <v>80.96648444964447</v>
+        <v>63.01690565868736</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.88128579481763</v>
+        <v>13.44627276844013</v>
       </c>
       <c r="L14">
-        <v>6.632727842087093</v>
+        <v>10.17165834388433</v>
       </c>
       <c r="M14">
-        <v>11.1749862841242</v>
+        <v>16.47246346587112</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.27531553577099</v>
+        <v>17.26643928752914</v>
       </c>
       <c r="C15">
-        <v>7.36488743946771</v>
+        <v>5.984118644509675</v>
       </c>
       <c r="D15">
-        <v>13.60509509265141</v>
+        <v>12.25495593059482</v>
       </c>
       <c r="E15">
-        <v>8.020216358091112</v>
+        <v>11.31276642645524</v>
       </c>
       <c r="F15">
-        <v>80.57398999612091</v>
+        <v>62.87938759925667</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.79887234341894</v>
+        <v>13.44364752440363</v>
       </c>
       <c r="L15">
-        <v>6.621369067939678</v>
+        <v>10.17217678642309</v>
       </c>
       <c r="M15">
-        <v>11.14333536066911</v>
+        <v>16.47367801780909</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.68211592716373</v>
+        <v>17.21961920555282</v>
       </c>
       <c r="C16">
-        <v>7.183426468477265</v>
+        <v>5.924377994781813</v>
       </c>
       <c r="D16">
-        <v>13.31851846200928</v>
+        <v>12.15726614155798</v>
       </c>
       <c r="E16">
-        <v>7.946063045044551</v>
+        <v>11.30369525667162</v>
       </c>
       <c r="F16">
-        <v>78.30857708924826</v>
+        <v>62.08609170894204</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,13 +1016,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.32206443739248</v>
+        <v>13.43017116185261</v>
       </c>
       <c r="L16">
-        <v>6.557459577377488</v>
+        <v>10.17557903236925</v>
       </c>
       <c r="M16">
-        <v>10.96450864346349</v>
+        <v>16.48172947707368</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.35136644742373</v>
+        <v>17.19251279670273</v>
       </c>
       <c r="C17">
-        <v>7.071967839816189</v>
+        <v>5.88705411148388</v>
       </c>
       <c r="D17">
-        <v>13.14169202265417</v>
+        <v>12.09668923011385</v>
       </c>
       <c r="E17">
-        <v>7.901140518075252</v>
+        <v>11.29829979518066</v>
       </c>
       <c r="F17">
-        <v>76.90409465835504</v>
+        <v>61.59493157174713</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.02535044819661</v>
+        <v>13.42330473408409</v>
       </c>
       <c r="L17">
-        <v>6.519286176045075</v>
+        <v>10.1780512580133</v>
       </c>
       <c r="M17">
-        <v>10.8570446215017</v>
+        <v>16.48764254134748</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.17778180662545</v>
+        <v>17.17751975015463</v>
       </c>
       <c r="C18">
-        <v>7.007772380431152</v>
+        <v>5.865338606280932</v>
       </c>
       <c r="D18">
-        <v>13.03959328626745</v>
+        <v>12.06161305155901</v>
       </c>
       <c r="E18">
-        <v>7.875503329172153</v>
+        <v>11.29525891880168</v>
       </c>
       <c r="F18">
-        <v>76.09076907981515</v>
+        <v>61.31084604886938</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.85307925920281</v>
+        <v>13.41987077039057</v>
       </c>
       <c r="L18">
-        <v>6.497700975101778</v>
+        <v>10.17961481094856</v>
       </c>
       <c r="M18">
-        <v>10.79604447606388</v>
+        <v>16.49140137106491</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.11897378604365</v>
+        <v>17.17254639251622</v>
       </c>
       <c r="C19">
-        <v>6.98601860863509</v>
+        <v>5.857943575223054</v>
       </c>
       <c r="D19">
-        <v>13.00495546357864</v>
+        <v>12.04969706201364</v>
       </c>
       <c r="E19">
-        <v>7.866856863657466</v>
+        <v>11.29424007413741</v>
       </c>
       <c r="F19">
-        <v>75.81443851682637</v>
+        <v>61.21439444614592</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.79446912093071</v>
+        <v>13.4187966583662</v>
       </c>
       <c r="L19">
-        <v>6.490455574388319</v>
+        <v>10.18016852960086</v>
       </c>
       <c r="M19">
-        <v>10.77552894497082</v>
+        <v>16.49273548884604</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.3834763641255</v>
+        <v>17.19533653039928</v>
       </c>
       <c r="C20">
-        <v>7.083841055622693</v>
+        <v>5.891052954026501</v>
       </c>
       <c r="D20">
-        <v>13.16055579447724</v>
+        <v>12.10316204801333</v>
       </c>
       <c r="E20">
-        <v>7.905901622874792</v>
+        <v>11.29886769215234</v>
       </c>
       <c r="F20">
-        <v>77.05417210198857</v>
+        <v>61.64738186772291</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.05710132915346</v>
+        <v>13.42398234417835</v>
       </c>
       <c r="L20">
-        <v>6.523311205107557</v>
+        <v>10.17777343278352</v>
       </c>
       <c r="M20">
-        <v>10.8684002154377</v>
+        <v>16.48697605377451</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.42713663373721</v>
+        <v>17.27902362787177</v>
       </c>
       <c r="C21">
-        <v>7.411726083320573</v>
+        <v>5.999333667492571</v>
       </c>
       <c r="D21">
-        <v>13.67878419246558</v>
+        <v>12.27997417072228</v>
       </c>
       <c r="E21">
-        <v>8.039543684542874</v>
+        <v>11.31516063617305</v>
       </c>
       <c r="F21">
-        <v>81.15441444563794</v>
+        <v>63.08275430814363</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,13 +1221,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.92072758564392</v>
+        <v>13.44755934803398</v>
       </c>
       <c r="L21">
-        <v>6.638195945460022</v>
+        <v>10.17141736176456</v>
       </c>
       <c r="M21">
-        <v>11.19020947333663</v>
+        <v>16.47190036066096</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.11521261896152</v>
+        <v>17.33895495605253</v>
       </c>
       <c r="C22">
-        <v>7.626062659771709</v>
+        <v>6.06789012901113</v>
       </c>
       <c r="D22">
-        <v>14.0143987120499</v>
+        <v>12.39336452217582</v>
       </c>
       <c r="E22">
-        <v>8.12885222468037</v>
+        <v>11.32636091869175</v>
       </c>
       <c r="F22">
-        <v>83.78749761581712</v>
+        <v>64.00529653413314</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.47222278648028</v>
+        <v>13.46754258186453</v>
       </c>
       <c r="L22">
-        <v>6.716775347590629</v>
+        <v>10.16852220789103</v>
       </c>
       <c r="M22">
-        <v>11.40805539997292</v>
+        <v>16.46523432773504</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.74917364793072</v>
+        <v>17.30649381559633</v>
       </c>
       <c r="C23">
-        <v>7.511619361051808</v>
+        <v>6.031502774656835</v>
       </c>
       <c r="D23">
-        <v>13.83553229723086</v>
+        <v>12.33304815165963</v>
       </c>
       <c r="E23">
-        <v>8.080997251603963</v>
+        <v>11.3203328297572</v>
       </c>
       <c r="F23">
-        <v>82.38629563572577</v>
+        <v>63.51440988542011</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.17899016761326</v>
+        <v>13.45645957347591</v>
       </c>
       <c r="L23">
-        <v>6.674506059791598</v>
+        <v>10.1699523224801</v>
       </c>
       <c r="M23">
-        <v>11.29108054334255</v>
+        <v>16.46850053422873</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.36896035078232</v>
+        <v>17.19405807921818</v>
       </c>
       <c r="C24">
-        <v>7.078473545946458</v>
+        <v>5.88924587940117</v>
       </c>
       <c r="D24">
-        <v>13.15202885432645</v>
+        <v>12.10023646396095</v>
       </c>
       <c r="E24">
-        <v>7.903748539359406</v>
+        <v>11.29861075575499</v>
       </c>
       <c r="F24">
-        <v>76.98634039510385</v>
+        <v>61.62367440177439</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.04275202328915</v>
+        <v>13.42367439656815</v>
       </c>
       <c r="L24">
-        <v>6.521490366419886</v>
+        <v>10.17789859450032</v>
       </c>
       <c r="M24">
-        <v>10.86326391761868</v>
+        <v>16.48727625353628</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.09904216595253</v>
+        <v>17.0956686428771</v>
       </c>
       <c r="C25">
-        <v>6.607585164490907</v>
+        <v>5.726329247762829</v>
       </c>
       <c r="D25">
-        <v>12.39965777187563</v>
+        <v>11.84021997836694</v>
       </c>
       <c r="E25">
-        <v>7.720177905202904</v>
+        <v>11.27756955653279</v>
       </c>
       <c r="F25">
-        <v>70.9512230701873</v>
+        <v>59.52466198294128</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.75499713593076</v>
+        <v>13.40801379871049</v>
       </c>
       <c r="L25">
-        <v>6.370547176870582</v>
+        <v>10.19188392218093</v>
       </c>
       <c r="M25">
-        <v>10.43269693969928</v>
+        <v>16.52120511107039</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_234/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_234/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.04324350258893</v>
+        <v>13.1585667036349</v>
       </c>
       <c r="C2">
-        <v>5.598243218831244</v>
+        <v>6.254126905453014</v>
       </c>
       <c r="D2">
-        <v>11.64155665218456</v>
+        <v>11.83131029781381</v>
       </c>
       <c r="E2">
-        <v>11.26414711091073</v>
+        <v>7.590806352481992</v>
       </c>
       <c r="F2">
-        <v>57.93622936338958</v>
+        <v>66.32197170109717</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,13 +442,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.41342992578843</v>
+        <v>9.746902975150158</v>
       </c>
       <c r="L2">
-        <v>10.20684388430188</v>
+        <v>6.270665965477217</v>
       </c>
       <c r="M2">
-        <v>16.55792841314695</v>
+        <v>10.1410788901498</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.02031697725667</v>
+        <v>12.519765482269</v>
       </c>
       <c r="C3">
-        <v>5.506379353198493</v>
+        <v>6.008941087676146</v>
       </c>
       <c r="D3">
-        <v>11.50265263352384</v>
+        <v>11.43691004667535</v>
       </c>
       <c r="E3">
-        <v>11.25634870994377</v>
+        <v>7.506438386634382</v>
       </c>
       <c r="F3">
-        <v>56.83751660945563</v>
+        <v>63.07109093813277</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,13 +483,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.4276402657267</v>
+        <v>9.057282929238923</v>
       </c>
       <c r="L3">
-        <v>10.21989284324145</v>
+        <v>6.209615944508286</v>
       </c>
       <c r="M3">
-        <v>16.59012411845315</v>
+        <v>9.958881630940175</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.0124793732986</v>
+        <v>12.12790492245156</v>
       </c>
       <c r="C4">
-        <v>5.447486261030732</v>
+        <v>5.855222690993987</v>
       </c>
       <c r="D4">
-        <v>11.41534165416848</v>
+        <v>11.19022909669157</v>
       </c>
       <c r="E4">
-        <v>11.25220294936749</v>
+        <v>7.45618380010791</v>
       </c>
       <c r="F4">
-        <v>56.15357939601261</v>
+        <v>61.02114351634699</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,13 +524,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.44154486887179</v>
+        <v>8.794621578259934</v>
       </c>
       <c r="L4">
-        <v>10.22934092039317</v>
+        <v>6.175288905538027</v>
       </c>
       <c r="M4">
-        <v>16.6134901488376</v>
+        <v>9.85450795101807</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.01085662783823</v>
+        <v>11.96851611544174</v>
       </c>
       <c r="C5">
-        <v>5.422862620463366</v>
+        <v>5.791733863406798</v>
       </c>
       <c r="D5">
-        <v>11.37926595019279</v>
+        <v>11.08858629059934</v>
       </c>
       <c r="E5">
-        <v>11.25067545713118</v>
+        <v>7.436082927867579</v>
       </c>
       <c r="F5">
-        <v>55.87278340861413</v>
+        <v>60.17270788199227</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,13 +565,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.44850991437816</v>
+        <v>8.688696046376945</v>
       </c>
       <c r="L5">
-        <v>10.23355223626543</v>
+        <v>6.162077733921756</v>
       </c>
       <c r="M5">
-        <v>16.62391557373416</v>
+        <v>9.813842996992554</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.01068209526821</v>
+        <v>11.94207441716211</v>
       </c>
       <c r="C6">
-        <v>5.418736228742923</v>
+        <v>5.781139100453267</v>
       </c>
       <c r="D6">
-        <v>11.37324604819275</v>
+        <v>11.07164174122049</v>
       </c>
       <c r="E6">
-        <v>11.25043160931813</v>
+        <v>7.432767737201507</v>
       </c>
       <c r="F6">
-        <v>55.82603915182034</v>
+        <v>60.03105379547273</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,13 +606,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.44974477585311</v>
+        <v>8.671178693336048</v>
       </c>
       <c r="L6">
-        <v>10.23427333545691</v>
+        <v>6.159930491808054</v>
       </c>
       <c r="M6">
-        <v>16.62570124558386</v>
+        <v>9.807202913322467</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.01245112535912</v>
+        <v>12.1257538457547</v>
       </c>
       <c r="C7">
-        <v>5.447156703327102</v>
+        <v>5.854369949654817</v>
       </c>
       <c r="D7">
-        <v>11.41485711454436</v>
+        <v>11.18886280382306</v>
       </c>
       <c r="E7">
-        <v>11.25218169289311</v>
+        <v>7.455911194875123</v>
       </c>
       <c r="F7">
-        <v>56.14980058278244</v>
+        <v>61.00975336631006</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,13 +647,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.44163354862211</v>
+        <v>8.793188334618574</v>
       </c>
       <c r="L7">
-        <v>10.22939625335341</v>
+        <v>6.175107609546948</v>
       </c>
       <c r="M7">
-        <v>16.61362709284701</v>
+        <v>9.853951988697638</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.03404530072966</v>
+        <v>12.93834347444908</v>
       </c>
       <c r="C8">
-        <v>5.567085822275061</v>
+        <v>6.170213511565855</v>
       </c>
       <c r="D8">
-        <v>11.59409021939295</v>
+        <v>11.6962660878066</v>
       </c>
       <c r="E8">
-        <v>11.26132510850146</v>
+        <v>7.5613881831294</v>
       </c>
       <c r="F8">
-        <v>57.55948079948023</v>
+        <v>65.21249907522932</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,13 +688,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.41725279354989</v>
+        <v>9.50169864011646</v>
       </c>
       <c r="L8">
-        <v>10.21104518034349</v>
+        <v>6.24895037641924</v>
       </c>
       <c r="M8">
-        <v>16.56828217153397</v>
+        <v>10.07669171665158</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.12572081233726</v>
+        <v>14.52781907045018</v>
       </c>
       <c r="C9">
-        <v>5.782472406115656</v>
+        <v>6.767037505540535</v>
       </c>
       <c r="D9">
-        <v>11.92895759623391</v>
+        <v>12.65526492766415</v>
       </c>
       <c r="E9">
-        <v>11.28433671937169</v>
+        <v>7.781069166923768</v>
       </c>
       <c r="F9">
-        <v>60.2389679948549</v>
+        <v>73.01296099080129</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,13 +729,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.41065471049142</v>
+        <v>11.19768697445373</v>
       </c>
       <c r="L9">
-        <v>10.18644900253945</v>
+        <v>6.419589863072257</v>
       </c>
       <c r="M9">
-        <v>16.50795044169884</v>
+        <v>10.5737236958982</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.22279296910945</v>
+        <v>15.72392363788417</v>
       </c>
       <c r="C10">
-        <v>5.928603314562781</v>
+        <v>7.196135416321161</v>
       </c>
       <c r="D10">
-        <v>12.16414639955432</v>
+        <v>13.33864356738847</v>
       </c>
       <c r="E10">
-        <v>11.30431936471294</v>
+        <v>7.951216805741813</v>
       </c>
       <c r="F10">
-        <v>62.14191684388643</v>
+        <v>78.4680986016444</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,13 +770,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.43102447109744</v>
+        <v>12.35570798453488</v>
       </c>
       <c r="L10">
-        <v>10.17531611461027</v>
+        <v>6.561866318253873</v>
       </c>
       <c r="M10">
-        <v>16.48110324242463</v>
+        <v>10.97688173324721</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.27329414357659</v>
+        <v>16.3583709202892</v>
       </c>
       <c r="C11">
-        <v>5.99244604599351</v>
+        <v>7.390490869074917</v>
       </c>
       <c r="D11">
-        <v>12.26864198823409</v>
+        <v>13.64539068641224</v>
       </c>
       <c r="E11">
-        <v>11.31407264080164</v>
+        <v>8.030772288029095</v>
       </c>
       <c r="F11">
-        <v>62.99062873151685</v>
+        <v>80.89148923457736</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,13 +811,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.44576468010347</v>
+        <v>12.86554286805546</v>
       </c>
       <c r="L11">
-        <v>10.17175581775974</v>
+        <v>6.630551052187193</v>
       </c>
       <c r="M11">
-        <v>16.4726915019759</v>
+        <v>11.16892367073215</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.29331749727385</v>
+        <v>16.59622847921427</v>
       </c>
       <c r="C12">
-        <v>6.016242570599236</v>
+        <v>7.464085006405777</v>
       </c>
       <c r="D12">
-        <v>12.30784141913639</v>
+        <v>13.76101412229301</v>
       </c>
       <c r="E12">
-        <v>11.31786073399588</v>
+        <v>8.061232889040081</v>
       </c>
       <c r="F12">
-        <v>63.30936420109315</v>
+        <v>81.80112456125686</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,13 +852,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.45213155604446</v>
+        <v>13.05636805686195</v>
       </c>
       <c r="L12">
-        <v>10.17062362114826</v>
+        <v>6.657157460292875</v>
       </c>
       <c r="M12">
-        <v>16.47005291274659</v>
+        <v>11.24293159633699</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.28896531240389</v>
+        <v>16.54510493808058</v>
       </c>
       <c r="C13">
-        <v>6.011134443665326</v>
+        <v>7.448233305736567</v>
       </c>
       <c r="D13">
-        <v>12.29941580214344</v>
+        <v>13.7361352141203</v>
       </c>
       <c r="E13">
-        <v>11.31704069693429</v>
+        <v>8.054657323834908</v>
       </c>
       <c r="F13">
-        <v>63.24084012529908</v>
+        <v>81.60556964455706</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,13 +893,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.45072546345457</v>
+        <v>13.01536653274727</v>
       </c>
       <c r="L13">
-        <v>10.17085785784898</v>
+        <v>6.651400264578415</v>
       </c>
       <c r="M13">
-        <v>16.47059686324128</v>
+        <v>11.22693465042184</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.27492352342292</v>
+        <v>16.37798646844426</v>
       </c>
       <c r="C14">
-        <v>5.994411406238529</v>
+        <v>7.39654484655432</v>
       </c>
       <c r="D14">
-        <v>12.27187444890734</v>
+        <v>13.65491341872081</v>
       </c>
       <c r="E14">
-        <v>11.31438239442565</v>
+        <v>8.033271434015845</v>
       </c>
       <c r="F14">
-        <v>63.01690565868736</v>
+        <v>80.96648444964416</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.44627276844013</v>
+        <v>12.88128579481764</v>
       </c>
       <c r="L14">
-        <v>10.17165834388433</v>
+        <v>6.632727842087101</v>
       </c>
       <c r="M14">
-        <v>16.47246346587112</v>
+        <v>11.17498628412421</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.26643928752914</v>
+        <v>16.27531553577097</v>
       </c>
       <c r="C15">
-        <v>5.984118644509675</v>
+        <v>7.364887439467976</v>
       </c>
       <c r="D15">
-        <v>12.25495593059482</v>
+        <v>13.60509509265137</v>
       </c>
       <c r="E15">
-        <v>11.31276642645524</v>
+        <v>8.02021635809119</v>
       </c>
       <c r="F15">
-        <v>62.87938759925667</v>
+        <v>80.5739899961202</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.44364752440363</v>
+        <v>12.79887234341895</v>
       </c>
       <c r="L15">
-        <v>10.17217678642309</v>
+        <v>6.621369067939685</v>
       </c>
       <c r="M15">
-        <v>16.47367801780909</v>
+        <v>11.14333536066915</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.21961920555282</v>
+        <v>15.68211592716375</v>
       </c>
       <c r="C16">
-        <v>5.924377994781813</v>
+        <v>7.183426468476863</v>
       </c>
       <c r="D16">
-        <v>12.15726614155798</v>
+        <v>13.31851846200927</v>
       </c>
       <c r="E16">
-        <v>11.30369525667162</v>
+        <v>7.946063045044542</v>
       </c>
       <c r="F16">
-        <v>62.08609170894204</v>
+        <v>78.30857708924826</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,13 +1016,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.43017116185261</v>
+        <v>12.3220644373924</v>
       </c>
       <c r="L16">
-        <v>10.17557903236925</v>
+        <v>6.557459577377475</v>
       </c>
       <c r="M16">
-        <v>16.48172947707368</v>
+        <v>10.96450864346349</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.19251279670273</v>
+        <v>15.35136644742375</v>
       </c>
       <c r="C17">
-        <v>5.88705411148388</v>
+        <v>7.071967839816192</v>
       </c>
       <c r="D17">
-        <v>12.09668923011385</v>
+        <v>13.14169202265419</v>
       </c>
       <c r="E17">
-        <v>11.29829979518066</v>
+        <v>7.90114051807521</v>
       </c>
       <c r="F17">
-        <v>61.59493157174713</v>
+        <v>76.90409465835457</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.42330473408409</v>
+        <v>12.02535044819647</v>
       </c>
       <c r="L17">
-        <v>10.1780512580133</v>
+        <v>6.51928617604502</v>
       </c>
       <c r="M17">
-        <v>16.48764254134748</v>
+        <v>10.85704462150176</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.17751975015463</v>
+        <v>15.17778180662543</v>
       </c>
       <c r="C18">
-        <v>5.865338606280932</v>
+        <v>7.007772380431028</v>
       </c>
       <c r="D18">
-        <v>12.06161305155901</v>
+        <v>13.03959328626733</v>
       </c>
       <c r="E18">
-        <v>11.29525891880168</v>
+        <v>7.875503329172267</v>
       </c>
       <c r="F18">
-        <v>61.31084604886938</v>
+        <v>76.09076907981525</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.41987077039057</v>
+        <v>11.85307925920281</v>
       </c>
       <c r="L18">
-        <v>10.17961481094856</v>
+        <v>6.49770097510189</v>
       </c>
       <c r="M18">
-        <v>16.49140137106491</v>
+        <v>10.79604447606391</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.17254639251622</v>
+        <v>15.11897378604369</v>
       </c>
       <c r="C19">
-        <v>5.857943575223054</v>
+        <v>6.986018608635229</v>
       </c>
       <c r="D19">
-        <v>12.04969706201364</v>
+        <v>13.00495546357851</v>
       </c>
       <c r="E19">
-        <v>11.29424007413741</v>
+        <v>7.866856863657453</v>
       </c>
       <c r="F19">
-        <v>61.21439444614592</v>
+        <v>75.81443851682562</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.4187966583662</v>
+        <v>11.79446912093066</v>
       </c>
       <c r="L19">
-        <v>10.18016852960086</v>
+        <v>6.490455574388275</v>
       </c>
       <c r="M19">
-        <v>16.49273548884604</v>
+        <v>10.77552894497084</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.19533653039928</v>
+        <v>15.38347636412548</v>
       </c>
       <c r="C20">
-        <v>5.891052954026501</v>
+        <v>7.083841055622829</v>
       </c>
       <c r="D20">
-        <v>12.10316204801333</v>
+        <v>13.16055579447745</v>
       </c>
       <c r="E20">
-        <v>11.29886769215234</v>
+        <v>7.905901622874755</v>
       </c>
       <c r="F20">
-        <v>61.64738186772291</v>
+        <v>77.05417210198887</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.42398234417835</v>
+        <v>12.05710132915359</v>
       </c>
       <c r="L20">
-        <v>10.17777343278352</v>
+        <v>6.523311205107526</v>
       </c>
       <c r="M20">
-        <v>16.48697605377451</v>
+        <v>10.86840021543763</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.27902362787177</v>
+        <v>16.42713663373723</v>
       </c>
       <c r="C21">
-        <v>5.999333667492571</v>
+        <v>7.411726083320577</v>
       </c>
       <c r="D21">
-        <v>12.27997417072228</v>
+        <v>13.67878419246548</v>
       </c>
       <c r="E21">
-        <v>11.31516063617305</v>
+        <v>8.039543684542819</v>
       </c>
       <c r="F21">
-        <v>63.08275430814363</v>
+        <v>81.15441444563766</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,13 +1221,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.44755934803398</v>
+        <v>12.92072758564395</v>
       </c>
       <c r="L21">
-        <v>10.17141736176456</v>
+        <v>6.63819594546</v>
       </c>
       <c r="M21">
-        <v>16.47190036066096</v>
+        <v>11.19020947333663</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.33895495605253</v>
+        <v>17.11521261896159</v>
       </c>
       <c r="C22">
-        <v>6.06789012901113</v>
+        <v>7.626062659771842</v>
       </c>
       <c r="D22">
-        <v>12.39336452217582</v>
+        <v>14.01439871204976</v>
       </c>
       <c r="E22">
-        <v>11.32636091869175</v>
+        <v>8.128852224680418</v>
       </c>
       <c r="F22">
-        <v>64.00529653413314</v>
+        <v>83.7874976158171</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.46754258186453</v>
+        <v>13.47222278648036</v>
       </c>
       <c r="L22">
-        <v>10.16852220789103</v>
+        <v>6.716775347590614</v>
       </c>
       <c r="M22">
-        <v>16.46523432773504</v>
+        <v>11.40805539997292</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.30649381559633</v>
+        <v>16.74917364793077</v>
       </c>
       <c r="C23">
-        <v>6.031502774656835</v>
+        <v>7.511619361051809</v>
       </c>
       <c r="D23">
-        <v>12.33304815165963</v>
+        <v>13.83553229723062</v>
       </c>
       <c r="E23">
-        <v>11.3203328297572</v>
+        <v>8.080997251604009</v>
       </c>
       <c r="F23">
-        <v>63.51440988542011</v>
+        <v>82.38629563572505</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.45645957347591</v>
+        <v>13.17899016761329</v>
       </c>
       <c r="L23">
-        <v>10.1699523224801</v>
+        <v>6.674506059791635</v>
       </c>
       <c r="M23">
-        <v>16.46850053422873</v>
+        <v>11.29108054334255</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.19405807921818</v>
+        <v>15.36896035078231</v>
       </c>
       <c r="C24">
-        <v>5.88924587940117</v>
+        <v>7.078473545946438</v>
       </c>
       <c r="D24">
-        <v>12.10023646396095</v>
+        <v>13.15202885432639</v>
       </c>
       <c r="E24">
-        <v>11.29861075575499</v>
+        <v>7.903748539359416</v>
       </c>
       <c r="F24">
-        <v>61.62367440177439</v>
+        <v>76.98634039510441</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.42367439656815</v>
+        <v>12.04275202328921</v>
       </c>
       <c r="L24">
-        <v>10.17789859450032</v>
+        <v>6.521490366419799</v>
       </c>
       <c r="M24">
-        <v>16.48727625353628</v>
+        <v>10.86326391761863</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.0956686428771</v>
+        <v>14.09904216595252</v>
       </c>
       <c r="C25">
-        <v>5.726329247762829</v>
+        <v>6.607585164490769</v>
       </c>
       <c r="D25">
-        <v>11.84021997836694</v>
+        <v>12.39965777187572</v>
       </c>
       <c r="E25">
-        <v>11.27756955653279</v>
+        <v>7.720177905202813</v>
       </c>
       <c r="F25">
-        <v>59.52466198294128</v>
+        <v>70.95122307018791</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.40801379871049</v>
+        <v>10.75499713593076</v>
       </c>
       <c r="L25">
-        <v>10.19188392218093</v>
+        <v>6.370547176870563</v>
       </c>
       <c r="M25">
-        <v>16.52120511107039</v>
+        <v>10.43269693969922</v>
       </c>
       <c r="N25">
         <v>0</v>
